--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rswor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\Mine\Personal\Current\Independent\table2ics-for-sduwh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49BF1258-FF4D-4D15-BA83-784504E23C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904361E4-48A3-4CDF-9B2B-C537B31F8324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6173" yWindow="7107" windowWidth="25786" windowHeight="13986"/>
+    <workbookView xWindow="-6173" yWindow="7107" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,6 +293,362 @@
   <si>
     <r>
       <t xml:space="preserve">
+28220150
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高等代数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李斌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>()
+3-17[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">153
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+28220170
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数学分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭新伟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>()
+3-17[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">556
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+26310270
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通用学术英语（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+孙凤芹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>()
+4,6,8,10,12,14,16,18[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图东教学楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">116
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+26310270
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通用学术英语（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+孙凤芹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>()
+3-17[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图东教学楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">116
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山东大学（威海）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XXX </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生个人课表</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
 29310010
 </t>
     </r>
@@ -350,361 +706,23 @@
       <t xml:space="preserve">]
 </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闻天楼前网球场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
-28220150
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高等代数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李斌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>()
-3-17[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">153
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-28220170
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数学分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭新伟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>()
-3-17[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">556
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-26310270
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通用学术英语（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-孙凤芹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>()
-4,6,8,10,12,14,16,18[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图东教学楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">116
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-26310270
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通用学术英语（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-孙凤芹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>()
-3-17[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图东教学楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">116
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山东大学（威海）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> XXX </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学生个人课表</t>
+</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -712,8 +730,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -772,6 +790,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -816,21 +840,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,11 +1169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,26 +1182,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1209,38 +1233,38 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="199.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1248,7 +1272,7 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1363,15 +1387,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
